--- a/data/RealData/resultsJanakaPhD.xlsx
+++ b/data/RealData/resultsJanakaPhD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagoyal/Documents/kb_genomeclassification/data/RealData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915A1370-5275-714D-8289-AB8619D23024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF9E13-2749-E943-906E-E58F18C4CDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13360" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{B5A1C3B8-5308-E44C-AD48-4969652EAF09}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
